--- a/data/trans_bre/P41A_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P41A_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.07236428784822</v>
+        <v>-12.6916018049352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.36692395443483</v>
+        <v>-12.054045474573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.98123309157761</v>
+        <v>-11.67458207422905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.08312161869095</v>
+        <v>-11.9232062258603</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.25321811277631</v>
+        <v>-0.2594921986242711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2257821541468566</v>
+        <v>-0.2389050255258417</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2811010920448057</v>
+        <v>-0.2856242300823259</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2981950412995166</v>
+        <v>-0.3008677685332538</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.938465264365276</v>
+        <v>-2.615668951609641</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.5902402220934915</v>
+        <v>-1.277043882634663</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.430499655750741</v>
+        <v>-1.202490683692167</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.9323331436597572</v>
+        <v>0.335873396242458</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.04602888809292201</v>
+        <v>-0.05423445534203451</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.0132208695703269</v>
+        <v>-0.0291910605717803</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.03848127416479116</v>
+        <v>-0.03373788357158358</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.02661618325081689</v>
+        <v>0.0104017926840819</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-7.961485821132436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-9.570700379454111</v>
+        <v>-9.570700379454117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1810397892857371</v>
@@ -749,7 +749,7 @@
         <v>-0.1624351895916985</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2050576640230918</v>
+        <v>-0.2050576640230919</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.88364701772533</v>
+        <v>-14.17592244059763</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.12888336969929</v>
+        <v>-15.83904090060694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.36188930277006</v>
+        <v>-12.42970035039955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-14.38054283758951</v>
+        <v>-14.760257678377</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2635809963377246</v>
+        <v>-0.2706080716664271</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3066102797895541</v>
+        <v>-0.3000792423420437</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2427713723508534</v>
+        <v>-0.2435352243416415</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2895063947409898</v>
+        <v>-0.2969490724265465</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-4.07729315787407</v>
+        <v>-4.691258908501599</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-6.743318602704587</v>
+        <v>-7.014386032391569</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-3.480197259296919</v>
+        <v>-3.751425141879863</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-4.471979045929827</v>
+        <v>-4.644031361050408</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.08506703932074845</v>
+        <v>-0.09856055801823277</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.139337084226028</v>
+        <v>-0.1429705676480764</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.07406600319836945</v>
+        <v>-0.0821897452145447</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1000557958415844</v>
+        <v>-0.106366865975974</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.380616208686204</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.7358207961948415</v>
+        <v>-0.7358207961948304</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1514325674036011</v>
@@ -849,7 +849,7 @@
         <v>-0.05293880137475249</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01965384441335966</v>
+        <v>-0.01965384441335936</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.45022528389782</v>
+        <v>-13.03217260479881</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-18.38126957055707</v>
+        <v>-18.03271005841981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.902782790519391</v>
+        <v>-7.584479216050763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.204945621760523</v>
+        <v>-7.244319817359149</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2421538963511918</v>
+        <v>-0.2488921210357785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3463027671122632</v>
+        <v>-0.346926901090351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.167946440605064</v>
+        <v>-0.1611455397395128</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1757229184912256</v>
+        <v>-0.177455115578451</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.852323208001168</v>
+        <v>-2.093276066645954</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-7.853058135059561</v>
+        <v>-7.463049858744654</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.738588163147602</v>
+        <v>2.852458706588915</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.838954602229082</v>
+        <v>5.310593348247279</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.03853166545784117</v>
+        <v>-0.04515769572031113</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1640975340076902</v>
+        <v>-0.1579970417532429</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06713697579559605</v>
+        <v>0.06707414887270352</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1689532984731864</v>
+        <v>0.1584805467668564</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-11.32847618116065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-7.748771467699545</v>
+        <v>-7.748771467699528</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2345402080242875</v>
@@ -949,7 +949,7 @@
         <v>-0.2312575800860746</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1839907302757534</v>
+        <v>-0.1839907302757531</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-16.52565954663423</v>
+        <v>-16.73635943014726</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-15.20410995236818</v>
+        <v>-15.49372772700126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-15.69329593532137</v>
+        <v>-15.58033565010542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-12.86578000513357</v>
+        <v>-13.04995195817028</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3032555500549802</v>
+        <v>-0.3088051387410936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2959774514202527</v>
+        <v>-0.2997569363477397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3057137058037968</v>
+        <v>-0.3085953797138195</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2908093149358001</v>
+        <v>-0.2896317340420875</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-7.394951029744488</v>
+        <v>-7.910564640349842</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-6.370981452036202</v>
+        <v>-6.432250147341892</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-6.614274178284265</v>
+        <v>-6.85478674461502</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.096478128974032</v>
+        <v>-2.812176193852142</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1468342297735938</v>
+        <v>-0.1587396814230301</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1292391025557177</v>
+        <v>-0.1354028156143877</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1433074633121204</v>
+        <v>-0.1498010846482473</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05781365636525881</v>
+        <v>-0.07180832464109785</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.8525964651964</v>
+        <v>-11.89395392201961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.07346073430667</v>
+        <v>-13.10539519633839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.639638070419258</v>
+        <v>-9.721035283128234</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.58324558299473</v>
+        <v>-9.553710051904488</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2326908159259578</v>
+        <v>-0.2340855555433168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2587996810412096</v>
+        <v>-0.2576746951444129</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2045487696620448</v>
+        <v>-0.2051079146600876</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2233754127537926</v>
+        <v>-0.2207348107337079</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-6.922416262270819</v>
+        <v>-6.837338685907629</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-7.993693567895491</v>
+        <v>-8.272516947346965</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.919767159422063</v>
+        <v>-4.943880023264152</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.96502073252727</v>
+        <v>-4.017155614534061</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1422689735358941</v>
+        <v>-0.1420262262209321</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1675472282957889</v>
+        <v>-0.170463487309172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1096496232346727</v>
+        <v>-0.1097920862100889</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.09929288733368075</v>
+        <v>-0.103279287003893</v>
       </c>
     </row>
     <row r="19">
